--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6723143333333333</v>
+        <v>0.2374196666666667</v>
       </c>
       <c r="N2">
-        <v>2.016943</v>
+        <v>0.7122590000000001</v>
       </c>
       <c r="O2">
-        <v>0.1884809556899308</v>
+        <v>0.04883833429957388</v>
       </c>
       <c r="P2">
-        <v>0.1884809556899308</v>
+        <v>0.04883833429957388</v>
       </c>
       <c r="Q2">
-        <v>123.7479851670996</v>
+        <v>15.17377160585256</v>
       </c>
       <c r="R2">
-        <v>1113.731866503896</v>
+        <v>136.563944452673</v>
       </c>
       <c r="S2">
-        <v>0.1227106346068168</v>
+        <v>0.01986707743579863</v>
       </c>
       <c r="T2">
-        <v>0.1227106346068168</v>
+        <v>0.01986707743579864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.837412</v>
       </c>
       <c r="O3">
-        <v>0.2651528206032981</v>
+        <v>0.1945563001683692</v>
       </c>
       <c r="P3">
-        <v>0.2651528206032981</v>
+        <v>0.1945563001683693</v>
       </c>
       <c r="Q3">
-        <v>174.087229083296</v>
+        <v>60.447451895596</v>
       </c>
       <c r="R3">
-        <v>1566.785061749664</v>
+        <v>544.0270670603639</v>
       </c>
       <c r="S3">
-        <v>0.1726278963565144</v>
+        <v>0.07914408090492962</v>
       </c>
       <c r="T3">
-        <v>0.1726278963565145</v>
+        <v>0.07914408090492965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.948896333333333</v>
+        <v>3.678114666666667</v>
       </c>
       <c r="N4">
-        <v>5.846689</v>
+        <v>11.034344</v>
       </c>
       <c r="O4">
-        <v>0.546366223706771</v>
+        <v>0.7566053655320568</v>
       </c>
       <c r="P4">
-        <v>0.546366223706771</v>
+        <v>0.7566053655320568</v>
       </c>
       <c r="Q4">
-        <v>358.7191029437342</v>
+        <v>235.0726571042409</v>
       </c>
       <c r="R4">
-        <v>3228.471926493608</v>
+        <v>2115.653913938168</v>
       </c>
       <c r="S4">
-        <v>0.3557120441870172</v>
+        <v>0.3077815327026265</v>
       </c>
       <c r="T4">
-        <v>0.3557120441870173</v>
+        <v>0.3077815327026265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6723143333333333</v>
+        <v>0.2374196666666667</v>
       </c>
       <c r="N5">
-        <v>2.016943</v>
+        <v>0.7122590000000001</v>
       </c>
       <c r="O5">
-        <v>0.1884809556899308</v>
+        <v>0.04883833429957388</v>
       </c>
       <c r="P5">
-        <v>0.1884809556899308</v>
+        <v>0.04883833429957388</v>
       </c>
       <c r="Q5">
-        <v>38.62002117540001</v>
+        <v>13.6381928802</v>
       </c>
       <c r="R5">
-        <v>347.5801905786</v>
+        <v>122.7437359218</v>
       </c>
       <c r="S5">
-        <v>0.03829627852576951</v>
+        <v>0.01785653831317618</v>
       </c>
       <c r="T5">
-        <v>0.03829627852576951</v>
+        <v>0.01785653831317618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.837412</v>
       </c>
       <c r="O6">
-        <v>0.2651528206032981</v>
+        <v>0.1945563001683692</v>
       </c>
       <c r="P6">
-        <v>0.2651528206032981</v>
+        <v>0.1945563001683693</v>
       </c>
       <c r="Q6">
         <v>54.3301974936</v>
       </c>
       <c r="R6">
-        <v>488.9717774424001</v>
+        <v>488.9717774424</v>
       </c>
       <c r="S6">
-        <v>0.05387476009206046</v>
+        <v>0.07113473622413455</v>
       </c>
       <c r="T6">
-        <v>0.05387476009206046</v>
+        <v>0.07113473622413458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.948896333333333</v>
+        <v>3.678114666666667</v>
       </c>
       <c r="N7">
-        <v>5.846689</v>
+        <v>11.034344</v>
       </c>
       <c r="O7">
-        <v>0.546366223706771</v>
+        <v>0.7566053655320568</v>
       </c>
       <c r="P7">
-        <v>0.546366223706771</v>
+        <v>0.7566053655320568</v>
       </c>
       <c r="Q7">
-        <v>111.9512316342</v>
+        <v>211.2834120432</v>
       </c>
       <c r="R7">
-        <v>1007.5610847078</v>
+        <v>1901.5507083888</v>
       </c>
       <c r="S7">
-        <v>0.1110127705133724</v>
+        <v>0.2766341827857082</v>
       </c>
       <c r="T7">
-        <v>0.1110127705133724</v>
+        <v>0.2766341827857082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6723143333333333</v>
+        <v>0.2374196666666667</v>
       </c>
       <c r="N8">
-        <v>2.016943</v>
+        <v>0.7122590000000001</v>
       </c>
       <c r="O8">
-        <v>0.1884809556899308</v>
+        <v>0.04883833429957388</v>
       </c>
       <c r="P8">
-        <v>0.1884809556899308</v>
+        <v>0.04883833429957388</v>
       </c>
       <c r="Q8">
-        <v>27.70629800554923</v>
+        <v>8.489029214041668</v>
       </c>
       <c r="R8">
-        <v>249.356682049943</v>
+        <v>76.40126292637501</v>
       </c>
       <c r="S8">
-        <v>0.02747404255734449</v>
+        <v>0.01111471855059906</v>
       </c>
       <c r="T8">
-        <v>0.0274740425573445</v>
+        <v>0.01111471855059906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.837412</v>
       </c>
       <c r="O9">
-        <v>0.2651528206032981</v>
+        <v>0.1945563001683692</v>
       </c>
       <c r="P9">
-        <v>0.2651528206032981</v>
+        <v>0.1945563001683693</v>
       </c>
       <c r="Q9">
-        <v>38.976898423268</v>
+        <v>33.8175766965</v>
       </c>
       <c r="R9">
-        <v>350.792085809412</v>
+        <v>304.3581902685</v>
       </c>
       <c r="S9">
-        <v>0.03865016415472323</v>
+        <v>0.04427748303930503</v>
       </c>
       <c r="T9">
-        <v>0.03865016415472324</v>
+        <v>0.04427748303930505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.948896333333333</v>
+        <v>3.678114666666667</v>
       </c>
       <c r="N10">
-        <v>5.846689</v>
+        <v>11.034344</v>
       </c>
       <c r="O10">
-        <v>0.546366223706771</v>
+        <v>0.7566053655320568</v>
       </c>
       <c r="P10">
-        <v>0.546366223706771</v>
+        <v>0.7566053655320568</v>
       </c>
       <c r="Q10">
-        <v>80.31466817840989</v>
+        <v>131.5123691996667</v>
       </c>
       <c r="R10">
-        <v>722.832013605689</v>
+        <v>1183.611322797</v>
       </c>
       <c r="S10">
-        <v>0.07964140900638139</v>
+        <v>0.172189650043722</v>
       </c>
       <c r="T10">
-        <v>0.07964140900638141</v>
+        <v>0.172189650043722</v>
       </c>
     </row>
   </sheetData>
